--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="H2">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="I2">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="J2">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.104507</v>
+        <v>2.407428333333334</v>
       </c>
       <c r="N2">
-        <v>6.313521000000001</v>
+        <v>7.222285000000001</v>
       </c>
       <c r="O2">
-        <v>0.286322860274909</v>
+        <v>0.3774919259534536</v>
       </c>
       <c r="P2">
-        <v>0.2863228602749089</v>
+        <v>0.3774919259534536</v>
       </c>
       <c r="Q2">
-        <v>11.77198641791867</v>
+        <v>11.79991769108056</v>
       </c>
       <c r="R2">
-        <v>105.947877761268</v>
+        <v>106.199259219725</v>
       </c>
       <c r="S2">
-        <v>0.05343015748928584</v>
+        <v>0.08019543608462761</v>
       </c>
       <c r="T2">
-        <v>0.05343015748928583</v>
+        <v>0.08019543608462761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="H3">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="I3">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="J3">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.806789</v>
       </c>
       <c r="O3">
-        <v>0.2633421882168251</v>
+        <v>0.3035072644205163</v>
       </c>
       <c r="P3">
-        <v>0.2633421882168251</v>
+        <v>0.3035072644205163</v>
       </c>
       <c r="Q3">
-        <v>10.82715037135689</v>
+        <v>9.487251229973891</v>
       </c>
       <c r="R3">
-        <v>97.444353342212</v>
+        <v>85.38526106976501</v>
       </c>
       <c r="S3">
-        <v>0.04914177853800637</v>
+        <v>0.06447792853735605</v>
       </c>
       <c r="T3">
-        <v>0.04914177853800637</v>
+        <v>0.06447792853735605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="H4">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="I4">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="J4">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8951723333333333</v>
+        <v>1.020054666666667</v>
       </c>
       <c r="N4">
-        <v>2.685517</v>
+        <v>3.060164</v>
       </c>
       <c r="O4">
-        <v>0.1217901878772388</v>
+        <v>0.1599476068991219</v>
       </c>
       <c r="P4">
-        <v>0.1217901878772388</v>
+        <v>0.1599476068991219</v>
       </c>
       <c r="Q4">
-        <v>5.007327868092888</v>
+        <v>4.999758846571112</v>
       </c>
       <c r="R4">
-        <v>45.065950812836</v>
+        <v>44.99782961914001</v>
       </c>
       <c r="S4">
-        <v>0.02272703238813245</v>
+        <v>0.03397971507223522</v>
       </c>
       <c r="T4">
-        <v>0.02272703238813245</v>
+        <v>0.03397971507223522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="H5">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="I5">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="J5">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.414843</v>
+        <v>1.014350666666667</v>
       </c>
       <c r="N5">
-        <v>7.244529</v>
+        <v>3.043052</v>
       </c>
       <c r="O5">
-        <v>0.3285447636310271</v>
+        <v>0.1590532027269083</v>
       </c>
       <c r="P5">
-        <v>0.3285447636310271</v>
+        <v>0.1590532027269083</v>
       </c>
       <c r="Q5">
-        <v>13.50791372868133</v>
+        <v>4.971800909224444</v>
       </c>
       <c r="R5">
-        <v>121.571223558132</v>
+        <v>44.74620818302</v>
       </c>
       <c r="S5">
-        <v>0.06130910555388956</v>
+        <v>0.03378970535892701</v>
       </c>
       <c r="T5">
-        <v>0.06130910555388956</v>
+        <v>0.03378970535892701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9.497398</v>
       </c>
       <c r="I6">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="J6">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.104507</v>
+        <v>2.407428333333334</v>
       </c>
       <c r="N6">
-        <v>6.313521000000001</v>
+        <v>7.222285000000001</v>
       </c>
       <c r="O6">
-        <v>0.286322860274909</v>
+        <v>0.3774919259534536</v>
       </c>
       <c r="P6">
-        <v>0.2863228602749089</v>
+        <v>0.3774919259534536</v>
       </c>
       <c r="Q6">
-        <v>6.662446857595335</v>
+        <v>7.621435012714446</v>
       </c>
       <c r="R6">
-        <v>59.96202171835801</v>
+        <v>68.59291511443001</v>
       </c>
       <c r="S6">
-        <v>0.03023921131300916</v>
+        <v>0.05179733625576793</v>
       </c>
       <c r="T6">
-        <v>0.03023921131300914</v>
+        <v>0.05179733625576793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9.497398</v>
       </c>
       <c r="I7">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="J7">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.806789</v>
       </c>
       <c r="O7">
-        <v>0.2633421882168251</v>
+        <v>0.3035072644205163</v>
       </c>
       <c r="P7">
-        <v>0.2633421882168251</v>
+        <v>0.3035072644205163</v>
       </c>
       <c r="Q7">
         <v>6.127709581669112</v>
@@ -883,10 +883,10 @@
         <v>55.14938623502201</v>
       </c>
       <c r="S7">
-        <v>0.02781217004284251</v>
+        <v>0.04164557372068457</v>
       </c>
       <c r="T7">
-        <v>0.0278121700428425</v>
+        <v>0.04164557372068457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9.497398</v>
       </c>
       <c r="I8">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="J8">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8951723333333333</v>
+        <v>1.020054666666667</v>
       </c>
       <c r="N8">
-        <v>2.685517</v>
+        <v>3.060164</v>
       </c>
       <c r="O8">
-        <v>0.1217901878772388</v>
+        <v>0.1599476068991219</v>
       </c>
       <c r="P8">
-        <v>0.1217901878772388</v>
+        <v>0.1599476068991219</v>
       </c>
       <c r="Q8">
-        <v>2.833935976085111</v>
+        <v>3.22928838369689</v>
       </c>
       <c r="R8">
-        <v>25.505423784766</v>
+        <v>29.063595453272</v>
       </c>
       <c r="S8">
-        <v>0.01286253994366668</v>
+        <v>0.02194711835738908</v>
       </c>
       <c r="T8">
-        <v>0.01286253994366668</v>
+        <v>0.02194711835738908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>9.497398</v>
       </c>
       <c r="I9">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="J9">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.414843</v>
+        <v>1.014350666666667</v>
       </c>
       <c r="N9">
-        <v>7.244529</v>
+        <v>3.043052</v>
       </c>
       <c r="O9">
-        <v>0.3285447636310271</v>
+        <v>0.1590532027269083</v>
       </c>
       <c r="P9">
-        <v>0.3285447636310271</v>
+        <v>0.1590532027269083</v>
       </c>
       <c r="Q9">
-        <v>7.644908359504667</v>
+        <v>3.211230664299556</v>
       </c>
       <c r="R9">
-        <v>68.804175235542</v>
+        <v>28.901075978696</v>
       </c>
       <c r="S9">
-        <v>0.0346983629727727</v>
+        <v>0.02182439320627572</v>
       </c>
       <c r="T9">
-        <v>0.03469836297277269</v>
+        <v>0.02182439320627572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="H10">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="I10">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="J10">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.104507</v>
+        <v>2.407428333333334</v>
       </c>
       <c r="N10">
-        <v>6.313521000000001</v>
+        <v>7.222285000000001</v>
       </c>
       <c r="O10">
-        <v>0.286322860274909</v>
+        <v>0.3774919259534536</v>
       </c>
       <c r="P10">
-        <v>0.2863228602749089</v>
+        <v>0.3774919259534536</v>
       </c>
       <c r="Q10">
-        <v>2.135637569046334</v>
+        <v>2.905148894203889</v>
       </c>
       <c r="R10">
-        <v>19.220738121417</v>
+        <v>26.146340047835</v>
       </c>
       <c r="S10">
-        <v>0.009693134837506534</v>
+        <v>0.01974417860876789</v>
       </c>
       <c r="T10">
-        <v>0.00969313483750653</v>
+        <v>0.01974417860876789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="H11">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="I11">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="J11">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.806789</v>
       </c>
       <c r="O11">
-        <v>0.2633421882168251</v>
+        <v>0.3035072644205163</v>
       </c>
       <c r="P11">
-        <v>0.2633421882168251</v>
+        <v>0.3035072644205163</v>
       </c>
       <c r="Q11">
-        <v>1.964228319494778</v>
+        <v>2.335768616473223</v>
       </c>
       <c r="R11">
-        <v>17.678054875453</v>
+        <v>21.021917548259</v>
       </c>
       <c r="S11">
-        <v>0.008915150317857454</v>
+        <v>0.01587451605128137</v>
       </c>
       <c r="T11">
-        <v>0.008915150317857452</v>
+        <v>0.01587451605128137</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="H12">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="I12">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="J12">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8951723333333333</v>
+        <v>1.020054666666667</v>
       </c>
       <c r="N12">
-        <v>2.685517</v>
+        <v>3.060164</v>
       </c>
       <c r="O12">
-        <v>0.1217901878772388</v>
+        <v>0.1599476068991219</v>
       </c>
       <c r="P12">
-        <v>0.1217901878772388</v>
+        <v>0.1599476068991219</v>
       </c>
       <c r="Q12">
-        <v>0.908414020878778</v>
+        <v>1.230944508653778</v>
       </c>
       <c r="R12">
-        <v>8.175726187909001</v>
+        <v>11.078500577884</v>
       </c>
       <c r="S12">
-        <v>0.004123068314719478</v>
+        <v>0.008365832224582882</v>
       </c>
       <c r="T12">
-        <v>0.004123068314719477</v>
+        <v>0.008365832224582884</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="H13">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="I13">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="J13">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>2.414843</v>
+        <v>1.014350666666667</v>
       </c>
       <c r="N13">
-        <v>7.244529</v>
+        <v>3.043052</v>
       </c>
       <c r="O13">
-        <v>0.3285447636310271</v>
+        <v>0.1590532027269083</v>
       </c>
       <c r="P13">
-        <v>0.3285447636310271</v>
+        <v>0.1590532027269083</v>
       </c>
       <c r="Q13">
-        <v>2.450564162603667</v>
+        <v>1.224061242779111</v>
       </c>
       <c r="R13">
-        <v>22.055077463433</v>
+        <v>11.016551185012</v>
       </c>
       <c r="S13">
-        <v>0.01112250936224436</v>
+        <v>0.008319051685687886</v>
       </c>
       <c r="T13">
-        <v>0.01112250936224436</v>
+        <v>0.008319051685687888</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="H14">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="I14">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="J14">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.104507</v>
+        <v>2.407428333333334</v>
       </c>
       <c r="N14">
-        <v>6.313521000000001</v>
+        <v>7.222285000000001</v>
       </c>
       <c r="O14">
-        <v>0.286322860274909</v>
+        <v>0.3774919259534536</v>
       </c>
       <c r="P14">
-        <v>0.2863228602749089</v>
+        <v>0.3774919259534536</v>
       </c>
       <c r="Q14">
-        <v>42.513943515153</v>
+        <v>33.21747786983111</v>
       </c>
       <c r="R14">
-        <v>382.625491636377</v>
+        <v>298.95730082848</v>
       </c>
       <c r="S14">
-        <v>0.1929603566351075</v>
+        <v>0.2257549750042902</v>
       </c>
       <c r="T14">
-        <v>0.1929603566351074</v>
+        <v>0.2257549750042902</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="H15">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="I15">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="J15">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.806789</v>
       </c>
       <c r="O15">
-        <v>0.2633421882168251</v>
+        <v>0.3035072644205163</v>
       </c>
       <c r="P15">
-        <v>0.2633421882168251</v>
+        <v>0.3035072644205163</v>
       </c>
       <c r="Q15">
-        <v>39.101715120677</v>
+        <v>26.70718271326578</v>
       </c>
       <c r="R15">
-        <v>351.915436086093</v>
+        <v>240.364644419392</v>
       </c>
       <c r="S15">
-        <v>0.1774730893181188</v>
+        <v>0.1815092461111943</v>
       </c>
       <c r="T15">
-        <v>0.1774730893181188</v>
+        <v>0.1815092461111943</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="H16">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="I16">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="J16">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8951723333333333</v>
+        <v>1.020054666666667</v>
       </c>
       <c r="N16">
-        <v>2.685517</v>
+        <v>3.060164</v>
       </c>
       <c r="O16">
-        <v>0.1217901878772388</v>
+        <v>0.1599476068991219</v>
       </c>
       <c r="P16">
-        <v>0.1217901878772388</v>
+        <v>0.1599476068991219</v>
       </c>
       <c r="Q16">
-        <v>18.083715575981</v>
+        <v>14.07462180571022</v>
       </c>
       <c r="R16">
-        <v>162.753440183829</v>
+        <v>126.671596251392</v>
       </c>
       <c r="S16">
-        <v>0.08207754723072019</v>
+        <v>0.09565494124491467</v>
       </c>
       <c r="T16">
-        <v>0.08207754723072018</v>
+        <v>0.09565494124491468</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="H17">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="I17">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="J17">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.414843</v>
+        <v>1.014350666666667</v>
       </c>
       <c r="N17">
-        <v>7.244529</v>
+        <v>3.043052</v>
       </c>
       <c r="O17">
-        <v>0.3285447636310271</v>
+        <v>0.1590532027269083</v>
       </c>
       <c r="P17">
-        <v>0.3285447636310271</v>
+        <v>0.1590532027269083</v>
       </c>
       <c r="Q17">
-        <v>48.78315866849699</v>
+        <v>13.99591853087289</v>
       </c>
       <c r="R17">
-        <v>439.0484280164729</v>
+        <v>125.963266777856</v>
       </c>
       <c r="S17">
-        <v>0.2214147857421205</v>
+        <v>0.09512005247601764</v>
       </c>
       <c r="T17">
-        <v>0.2214147857421205</v>
+        <v>0.09512005247601765</v>
       </c>
     </row>
   </sheetData>
